--- a/Documents/RAID Log Register Template (5).xlsx
+++ b/Documents/RAID Log Register Template (5).xlsx
@@ -959,7 +959,7 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
